--- a/Projects/2_Classical Planning/results/Search_Results_Tables.xlsx
+++ b/Projects/2_Classical Planning/results/Search_Results_Tables.xlsx
@@ -1,24 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Education\Udacity Artificial Intelligence Nanodegree\Code\artificial-intelligence\Projects\2_Classical Planning\results\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlsenk\Documents\academic\udacity\artificial-intelligence\Projects\2_Classical Planning\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FCCDAE7-6A61-4B6E-9A37-D477FE1289FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23490" yWindow="9825" windowWidth="18900" windowHeight="11370" activeTab="2" xr2:uid="{F1391513-0E3C-4384-858D-D212CB5E0A54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="ACP 1" sheetId="1" r:id="rId1"/>
     <sheet name="ACP 2" sheetId="3" r:id="rId2"/>
     <sheet name="ACP 3" sheetId="4" r:id="rId3"/>
     <sheet name="ACP 4" sheetId="5" r:id="rId4"/>
+    <sheet name="Plots" sheetId="6" r:id="rId5"/>
+    <sheet name="Data Reorg'd" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="28">
   <si>
     <t>BFS</t>
   </si>
@@ -74,11 +75,50 @@
   <si>
     <t>Plan Length</t>
   </si>
+  <si>
+    <t>Algorith Names</t>
+  </si>
+  <si>
+    <t>DFS</t>
+  </si>
+  <si>
+    <t>Greedy_h_unmet_goals</t>
+  </si>
+  <si>
+    <t>Greedy_h_pg_level_sum</t>
+  </si>
+  <si>
+    <t>Greedy_h_pg_maxlevel</t>
+  </si>
+  <si>
+    <t>Greedy_h_pg_setlevel</t>
+  </si>
+  <si>
+    <t>A*_h_unmet_goals</t>
+  </si>
+  <si>
+    <t>A*_h_pg_level_sum</t>
+  </si>
+  <si>
+    <t>A*_h_pg_maxlevel</t>
+  </si>
+  <si>
+    <t>A*_h_pg_setlevel</t>
+  </si>
+  <si>
+    <t>Number of Actions</t>
+  </si>
+  <si>
+    <t>Runtime by Actions</t>
+  </si>
+  <si>
+    <t>Nodes Expanded by Actions</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -96,7 +136,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -119,53 +159,29 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -181,6 +197,7463 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Problem 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$C$4:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UCS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy_h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy_h_pg_level_sum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Greedy_h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Greedy_h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A*_h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>A*_h_pg_level_sum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A*_h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A*_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 1'!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3.1326E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.106E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.4795000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.807E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.0801780000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.25762600000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.2455149999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7538999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.40758299999999997</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.322959</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.0347569999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-213D-47C7-AF1D-F299BBC3873B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Problem 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 2'!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0.441276</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58468200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.77845699999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0367E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.9877340000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.8999259999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.3233300000000003</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.83989400000000003</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35.831352000000003</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>200.48207500000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>320.04372100000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-213D-47C7-AF1D-F299BBC3873B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Problem 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 3'!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1.089955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.26323000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9186559999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5340999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.197635</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.9699239999999998</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>21.997461999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6296170000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.431944000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>994.61130900000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1447.6991860000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-213D-47C7-AF1D-F299BBC3873B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Problem 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 4'!$H$5:$H$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5.7274690000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.0774050000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7137999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>7.3055870000000001</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13.589116000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>95.986711</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.4897939999999998</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>314.69058999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10084.452036000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15154.385401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-213D-47C7-AF1D-F299BBC3873B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="451885848"/>
+        <c:axId val="451888144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451885848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451888144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451888144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451885848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Num</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>ber of Nodes Expanded</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Problem 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$C$4:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UCS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy_h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy_h_pg_level_sum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Greedy_h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Greedy_h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A*_h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>A*_h_pg_level_sum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A*_h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A*_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 1'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-CD97-4ACE-A505-57E5DAF4A7DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Problem 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 2'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2887</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1037</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-CD97-4ACE-A505-57E5DAF4A7DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Problem 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 3'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14663</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>408</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7388</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9580</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3423</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-CD97-4ACE-A505-57E5DAF4A7DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Problem 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 4'!$E$5:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>99736</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113339</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>34330</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1208</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>62077</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>22606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-CD97-4ACE-A505-57E5DAF4A7DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="451885848"/>
+        <c:axId val="451888144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451885848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451888144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451888144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>New Nodes Expanded</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451885848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Length</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> of Path</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Algorithm</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Problem 1</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:strRef>
+              <c:f>Plots!$C$4:$C$14</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>BFS</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>DFS</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>UCS</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Greedy_h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Greedy_h_pg_level_sum</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Greedy_h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Greedy_h_pg_setlevel</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>A*_h_unmet_goals</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>A*_h_pg_level_sum</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>A*_h_pg_maxlevel</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>A*_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 1'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1E8E-4A36-A1DB-CC8BFBE79582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Problem 2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 2'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>619</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>9</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1E8E-4A36-A1DB-CC8BFBE79582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>Problem 3</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 3'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>392</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1E8E-4A36-A1DB-CC8BFBE79582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Problem 4</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'ACP 4'!$I$5:$I$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1E8E-4A36-A1DB-CC8BFBE79582}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="451885848"/>
+        <c:axId val="451888144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451885848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Algorithm</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451888144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451888144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Solution Path Length (Actions)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451885848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Runtime by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Actions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$D$4:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3.1326E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.441276</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.089955</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.7274690000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$E$4:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.106E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58468200000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.26323000000000002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UCS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.4795000000000001E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.77845699999999995</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9186559999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9.0774050000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$G$4:$G$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.807E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0367E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5340999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.7137999999999999E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_pg_level_sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$H$4:$H$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0801780000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.9877340000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.197635</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.3055870000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$I$4:$I$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25762600000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8999259999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9699239999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.589116000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$J$4:$J$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.2455149999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.3233300000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21.997461999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>95.986711</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$K$4:$K$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7538999999999999E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83989400000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.6296170000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.4897939999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_pg_level_sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$L$4:$L$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.40758299999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>35.831352000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>56.431944000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>314.69058999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$M$4:$M$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.322959</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200.48207500000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>994.61130900000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10084.452036000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$N$4:$N$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.0347569999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>320.04372100000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1447.6991860000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15154.385401</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000B-8FD5-48D7-8B9D-A48E5A5032E9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="451885848"/>
+        <c:axId val="451888144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451885848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Problem Domain Actions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451888144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451888144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Runtime</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> (s)</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451885848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Number of Nodes Expanded by</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Number of Actions</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>BFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$D$14:$D$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14663</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>99736</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>DFS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$E$14:$E$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>624</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>408</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>UCS</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$F$14:$F$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5154</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>18510</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>113339</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$7</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$G$14:$G$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_pg_level_sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$H$14:$H$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>17</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$9</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$I$14:$I$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>56</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$J$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Greedy_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$J$14:$J$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>107</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Plots!$C$11</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_unmet_goals</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$K$14:$K$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2567</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7388</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>34330</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$L$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_pg_level_sum</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$L$14:$L$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>357</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>369</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1208</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$M$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_pg_maxlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$M$14:$M$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2887</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9580</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>62077</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Data Reorg''d'!$N$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>A*_h_pg_setlevel</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Plots!$F$4:$F$7</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>104</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Data Reorg''d'!$N$14:$N$17</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1037</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3423</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>22606</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000A-9DD3-4ECC-92E6-F842B5A11867}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="451885848"/>
+        <c:axId val="451888144"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="451885848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Number of Problem Domain Actions</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="low"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451888144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="451888144"/>
+        <c:scaling>
+          <c:logBase val="10"/>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>New</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Nodes Expanded</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="451885848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>53340</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>350520</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -479,319 +7952,322 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3351813-BEEB-4E52-90F3-CFC43C536AC3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>20</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>43</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>56</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>178</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>3.1326E-2</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>20</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>21</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>22</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>84</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>1.106E-2</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>20</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>60</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>62</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>240</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>2.4795000000000001E-2</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>20</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>7</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>9</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>29</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2.807E-3</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>20</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>6</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>8</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>28</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>1.0801780000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>20</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>6</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>8</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>24</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>0.25762600000000002</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>20</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>6</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>28</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>1.2455149999999999</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>20</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>50</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>52</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>206</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1.7538999999999999E-2</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>20</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>28</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>30</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>122</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>0.40758299999999997</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>20</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>43</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>45</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>180</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>0.322959</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>20</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>33</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>35</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>138</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>1.0347569999999999</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>6</v>
       </c>
     </row>
@@ -806,319 +8282,322 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99B5171A-5D6D-4183-AC3C-6B578CA9D644}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+      <selection activeCell="E5" sqref="E5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>72</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>3343</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>4609</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>30503</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>0.441276</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>72</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>624</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>625</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>5602</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.58468200000000004</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>619</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>72</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>5154</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>5156</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>46618</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>0.77845699999999995</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>72</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>17</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>19</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>170</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2.0367E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>72</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>9</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>11</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>86</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>2.9877340000000001</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>72</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>27</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>29</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>249</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>2.8999259999999998</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>72</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>9</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>11</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>84</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>5.3233300000000003</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>72</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>2567</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>2469</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>22522</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>0.83989400000000003</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>72</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>357</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>359</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>3426</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>35.831352000000003</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>72</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>2887</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>2889</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>26594</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>200.48207500000001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>72</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>1037</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>1039</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>9605</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>320.04372100000001</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>9</v>
       </c>
     </row>
@@ -1133,319 +8612,322 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5FEC156-7CBF-4509-80AB-3E2662F5B4F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
+      <c r="I4" s="3" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>88</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>14663</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>18098</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>129625</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>1.089955</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>88</v>
       </c>
-      <c r="E6" s="2">
+      <c r="E6" s="1">
         <v>408</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <v>409</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>3364</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <v>0.26323000000000002</v>
       </c>
-      <c r="I6" s="5">
+      <c r="I6" s="7">
         <v>392</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>88</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>18510</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>18512</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>161936</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>1.9186559999999999</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>88</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>25</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>27</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>230</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>2.5340999999999999E-2</v>
       </c>
-      <c r="I8" s="9">
+      <c r="I8" s="7">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>88</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>14</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>16</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>126</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>5.197635</v>
       </c>
-      <c r="I9" s="9">
+      <c r="I9" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>88</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>21</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>23</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>195</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>3.9699239999999998</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>88</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>35</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>37</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>345</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>21.997461999999999</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>88</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>7388</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>7390</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>65711</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>1.6296170000000001</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>88</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>369</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>371</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>3403</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>56.431944000000001</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>88</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>9580</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>9582</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>86312</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>994.61130900000001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>88</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>3423</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>3425</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>31596</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>1447.6991860000001</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>12</v>
       </c>
     </row>
@@ -1460,309 +8942,310 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9229164-1991-4127-9AB3-737B44D68C14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:J15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="E5" sqref="E5:E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.7265625" customWidth="1"/>
+    <col min="3" max="3" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" customWidth="1"/>
     <col min="5" max="5" width="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.81640625" customWidth="1"/>
-    <col min="7" max="7" width="10.7265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.77734375" customWidth="1"/>
+    <col min="7" max="7" width="10.77734375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.88671875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="14" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.81640625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="13.90625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.77734375" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.88671875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="6" t="s">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B5" s="2"/>
-      <c r="C5" s="2" t="s">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D5" s="1">
         <v>104</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="1">
         <v>99736</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <v>114953</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>944130</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <v>5.7274690000000001</v>
       </c>
-      <c r="I5" s="5">
+      <c r="I5" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="2"/>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B7" s="2"/>
-      <c r="C7" s="2" t="s">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="E7" s="1">
         <v>113339</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <v>113341</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>1066413</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <v>9.0774050000000006</v>
       </c>
-      <c r="I7" s="5">
+      <c r="I7" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>104</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8" s="1">
         <v>29</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <v>31</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <v>280</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <v>4.7137999999999999E-2</v>
       </c>
-      <c r="I8" s="5">
+      <c r="I8" s="7">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B9" s="3"/>
-      <c r="C9" s="2" t="s">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="5"/>
+      <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>104</v>
       </c>
-      <c r="E9" s="2">
+      <c r="E9" s="1">
         <v>17</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <v>19</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <v>165</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <v>7.3055870000000001</v>
       </c>
-      <c r="I9" s="5">
+      <c r="I9" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="3"/>
-      <c r="C10" s="2" t="s">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B10" s="5"/>
+      <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>104</v>
       </c>
-      <c r="E10" s="2">
+      <c r="E10" s="1">
         <v>56</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <v>58</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <v>580</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <v>13.589116000000001</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="7">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="2" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B11" s="5"/>
+      <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>104</v>
       </c>
-      <c r="E11" s="2">
+      <c r="E11" s="1">
         <v>107</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <v>109</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <v>1164</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <v>95.986711</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="7">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="4" t="s">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>104</v>
       </c>
-      <c r="E12" s="2">
+      <c r="E12" s="1">
         <v>34330</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <v>34332</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <v>328509</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <v>5.4897939999999998</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B13" s="4"/>
-      <c r="C13" s="2" t="s">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B13" s="6"/>
+      <c r="C13" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>104</v>
       </c>
-      <c r="E13" s="2">
+      <c r="E13" s="1">
         <v>1208</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <v>1210</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <v>12210</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <v>314.69058999999999</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B14" s="4"/>
-      <c r="C14" s="2" t="s">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B14" s="6"/>
+      <c r="C14" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>104</v>
       </c>
-      <c r="E14" s="2">
+      <c r="E14" s="1">
         <v>62077</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <v>62079</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <v>599376</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <v>10084.452036000001</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="7">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="4"/>
-      <c r="C15" s="2" t="s">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B15" s="6"/>
+      <c r="C15" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="2">
+      <c r="D15" s="1">
         <v>104</v>
       </c>
-      <c r="E15" s="2">
+      <c r="E15" s="1">
         <v>22606</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <v>22608</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="1">
         <v>224229</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="1">
         <v>15154.385401</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="7">
         <v>14</v>
       </c>
     </row>
@@ -1774,4 +9257,529 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C3:F14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="I15" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T28" sqref="T28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="3" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="8" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:N17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="16.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>0</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>2</v>
+      </c>
+      <c r="G3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>20</v>
+      </c>
+      <c r="D4" s="1">
+        <v>3.1326E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1.106E-2</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2.4795000000000001E-2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>2.807E-3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>1.0801780000000001</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.25762600000000002</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1.2455149999999999</v>
+      </c>
+      <c r="K4" s="1">
+        <v>1.7538999999999999E-2</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.40758299999999997</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.322959</v>
+      </c>
+      <c r="N4" s="1">
+        <v>1.0347569999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>72</v>
+      </c>
+      <c r="D5" s="1">
+        <v>0.441276</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0.58468200000000004</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.77845699999999995</v>
+      </c>
+      <c r="G5" s="1">
+        <v>2.0367E-2</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2.9877340000000001</v>
+      </c>
+      <c r="I5" s="1">
+        <v>2.8999259999999998</v>
+      </c>
+      <c r="J5" s="1">
+        <v>5.3233300000000003</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0.83989400000000003</v>
+      </c>
+      <c r="L5" s="1">
+        <v>35.831352000000003</v>
+      </c>
+      <c r="M5" s="1">
+        <v>200.48207500000001</v>
+      </c>
+      <c r="N5" s="1">
+        <v>320.04372100000001</v>
+      </c>
+    </row>
+    <row r="6" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.089955</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0.26323000000000002</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1.9186559999999999</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.5340999999999999E-2</v>
+      </c>
+      <c r="H6" s="1">
+        <v>5.197635</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.9699239999999998</v>
+      </c>
+      <c r="J6" s="1">
+        <v>21.997461999999999</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1.6296170000000001</v>
+      </c>
+      <c r="L6" s="1">
+        <v>56.431944000000001</v>
+      </c>
+      <c r="M6" s="1">
+        <v>994.61130900000001</v>
+      </c>
+      <c r="N6" s="1">
+        <v>1447.6991860000001</v>
+      </c>
+    </row>
+    <row r="7" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>104</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.7274690000000001</v>
+      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1">
+        <v>9.0774050000000006</v>
+      </c>
+      <c r="G7" s="1">
+        <v>4.7137999999999999E-2</v>
+      </c>
+      <c r="H7" s="1">
+        <v>7.3055870000000001</v>
+      </c>
+      <c r="I7" s="1">
+        <v>13.589116000000001</v>
+      </c>
+      <c r="J7" s="1">
+        <v>95.986711</v>
+      </c>
+      <c r="K7" s="1">
+        <v>5.4897939999999998</v>
+      </c>
+      <c r="L7" s="1">
+        <v>314.69058999999999</v>
+      </c>
+      <c r="M7" s="1">
+        <v>10084.452036000001</v>
+      </c>
+      <c r="N7" s="1">
+        <v>15154.385401</v>
+      </c>
+    </row>
+    <row r="10" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" t="s">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" t="s">
+        <v>19</v>
+      </c>
+      <c r="J13" t="s">
+        <v>20</v>
+      </c>
+      <c r="K13" t="s">
+        <v>21</v>
+      </c>
+      <c r="L13" t="s">
+        <v>22</v>
+      </c>
+      <c r="M13" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>20</v>
+      </c>
+      <c r="D14" s="1">
+        <v>43</v>
+      </c>
+      <c r="E14" s="1">
+        <v>21</v>
+      </c>
+      <c r="F14" s="1">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1">
+        <v>7</v>
+      </c>
+      <c r="H14" s="1">
+        <v>6</v>
+      </c>
+      <c r="I14" s="1">
+        <v>6</v>
+      </c>
+      <c r="J14" s="1">
+        <v>6</v>
+      </c>
+      <c r="K14" s="1">
+        <v>50</v>
+      </c>
+      <c r="L14" s="1">
+        <v>28</v>
+      </c>
+      <c r="M14" s="1">
+        <v>43</v>
+      </c>
+      <c r="N14" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C15">
+        <v>72</v>
+      </c>
+      <c r="D15" s="1">
+        <v>3343</v>
+      </c>
+      <c r="E15" s="1">
+        <v>624</v>
+      </c>
+      <c r="F15" s="1">
+        <v>5154</v>
+      </c>
+      <c r="G15" s="1">
+        <v>17</v>
+      </c>
+      <c r="H15" s="1">
+        <v>9</v>
+      </c>
+      <c r="I15" s="1">
+        <v>27</v>
+      </c>
+      <c r="J15" s="1">
+        <v>9</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2567</v>
+      </c>
+      <c r="L15" s="1">
+        <v>357</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2887</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="16" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>88</v>
+      </c>
+      <c r="D16" s="1">
+        <v>14663</v>
+      </c>
+      <c r="E16" s="1">
+        <v>408</v>
+      </c>
+      <c r="F16" s="1">
+        <v>18510</v>
+      </c>
+      <c r="G16" s="1">
+        <v>25</v>
+      </c>
+      <c r="H16" s="1">
+        <v>14</v>
+      </c>
+      <c r="I16" s="1">
+        <v>21</v>
+      </c>
+      <c r="J16" s="1">
+        <v>35</v>
+      </c>
+      <c r="K16" s="1">
+        <v>7388</v>
+      </c>
+      <c r="L16" s="1">
+        <v>369</v>
+      </c>
+      <c r="M16" s="1">
+        <v>9580</v>
+      </c>
+      <c r="N16" s="1">
+        <v>3423</v>
+      </c>
+    </row>
+    <row r="17" spans="3:14" x14ac:dyDescent="0.3">
+      <c r="C17">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1">
+        <v>99736</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1">
+        <v>113339</v>
+      </c>
+      <c r="G17" s="1">
+        <v>29</v>
+      </c>
+      <c r="H17" s="1">
+        <v>17</v>
+      </c>
+      <c r="I17" s="1">
+        <v>56</v>
+      </c>
+      <c r="J17" s="1">
+        <v>107</v>
+      </c>
+      <c r="K17" s="1">
+        <v>34330</v>
+      </c>
+      <c r="L17" s="1">
+        <v>1208</v>
+      </c>
+      <c r="M17" s="1">
+        <v>62077</v>
+      </c>
+      <c r="N17" s="1">
+        <v>22606</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<WrappedLabelHistory xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory">
+  <Value>PD94bWwgdmVyc2lvbj0iMS4wIiBlbmNvZGluZz0idXMtYXNjaWkiPz48bGFiZWxIaXN0b3J5IHhtbG5zOnhzaT0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEtaW5zdGFuY2UiIHhtbG5zOnhzZD0iaHR0cDovL3d3dy53My5vcmcvMjAwMS9YTUxTY2hlbWEiIHhtbG5zPSJodHRwOi8vd3d3LmJvbGRvbmphbWVzLmNvbS8yMDE2LzAyL0NsYXNzaWZpZXIvaW50ZXJuYWwvbGFiZWxIaXN0b3J5Ij48aXRlbT48c2lzbCBzaXNsVmVyc2lvbj0iMCIgcG9saWN5PSJjOGQ1NzYwZS02MzhhLTQ3ZTgtOWUyZS0xMjI2YzJjYjI2OGQiIG9yaWdpbj0idXNlclNlbGVjdGVkIj48ZWxlbWVudCB1aWQ9IjQyODM0YmZiLTFlYzEtNGJlYi1iZDY0LWViODNmYjNjYjNmMyIgdmFsdWU9IiIgeG1sbnM9Imh0dHA6Ly93d3cuYm9sZG9uamFtZXMuY29tLzIwMDgvMDEvc2llL2ludGVybmFsL2xhYmVsIiAvPjwvc2lzbD48VXNlck5hbWU+TEVJRE9TLUNPUlBcY2FybHNlbms8L1VzZXJOYW1lPjxEYXRlVGltZT4zLzMvMjAyMSAxOjU0OjMzIFBNPC9EYXRlVGltZT48TGFiZWxTdHJpbmc+VW5yZXN0cmljdGVkPC9MYWJlbFN0cmluZz48L2l0ZW0+PC9sYWJlbEhpc3Rvcnk+</Value>
+</WrappedLabelHistory>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<sisl xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns="http://www.boldonjames.com/2008/01/sie/internal/label" sislVersion="0" policy="c8d5760e-638a-47e8-9e2e-1226c2cb268d" origin="userSelected">
+  <element uid="42834bfb-1ec1-4beb-bd64-eb83fb3cb3f3" value=""/>
+</sisl>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB87407B-190F-4BCC-B848-E13A75809F76}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2016/02/Classifier/internal/wrappedLabelHistory"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4C7D5262-7046-48AE-A36A-EB543D7C84E7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://www.boldonjames.com/2008/01/sie/internal/label"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>